--- a/漢字（かんじ）/g.xlsx
+++ b/漢字（かんじ）/g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD510F1-3DF5-4C9F-A821-5188945F2E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E68DE-70DC-42FF-82B6-EDC61EABB647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="2916" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="が" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="165">
   <si>
     <t>げん</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,12 +470,6 @@
   </si>
   <si>
     <t>玩具｜がんぐ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劇場版｜げきじょうばん
-芸術劇場｜げいじゅつげきじょう
-悲劇的｜ひげきてき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,6 +889,25 @@
 案外｜あんがい
 以外｜いがい
 意外｜いがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花柄｜はながら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇場版｜げきじょうばん
+芸術劇場｜げいじゅつげきじょう
+劇院｜げきいん
+悲劇｜ひげき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1283,22 +1296,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1349,16 +1362,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1396,7 +1409,7 @@
         <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1406,6 +1419,15 @@
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -1423,10 +1445,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1437,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1497,13 +1519,13 @@
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1511,10 +1533,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1538,13 +1560,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1574,10 +1596,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1585,10 +1607,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1596,10 +1618,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1607,10 +1629,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1637,13 +1659,13 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -1654,7 +1676,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1665,18 +1687,18 @@
         <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1700,13 +1722,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -1717,7 +1739,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1728,7 +1750,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1750,18 +1772,18 @@
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75.599999999999994" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1774,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE90583-D548-4FB2-BBBC-28132704ED4D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1786,22 +1808,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -1812,7 +1834,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1824,7 +1846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +1854,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -1841,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1849,19 +1871,19 @@
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1872,16 +1894,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1936,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1969,7 +1991,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2009,13 +2031,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2023,10 +2045,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2037,7 +2059,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2045,10 +2067,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -2059,7 +2081,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2067,10 +2089,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2078,10 +2100,10 @@
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -2089,10 +2111,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -2100,10 +2122,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -2114,7 +2136,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2158,7 +2180,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/g.xlsx
+++ b/漢字（かんじ）/g.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E68DE-70DC-42FF-82B6-EDC61EABB647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA1214-1CFA-46E2-8A02-F49C85819A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="が" sheetId="1" r:id="rId1"/>
@@ -180,43 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">学生｜がくせい
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校｜がっこう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-学部｜がくぶ
-学習｜がくしゅう</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>減</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,10 +391,6 @@
   </si>
   <si>
     <t>害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>障害｜しょうがい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月曜日｜げつようび</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仮名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,6 +863,56 @@
 芸術劇場｜げいじゅつげきじょう
 劇院｜げきいん
 悲劇｜ひげき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">学生｜がくせい
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学校｜がっこう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+学部｜がくぶ
+学習｜がくしゅう
+学級｜がきゅうう</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月曜日｜げつようび
+月給｜げきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障害｜しょうがい
+被害｜ひがい
+災害｜さいがい
+公害｜こうがい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1296,25 +1301,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="75.599999999999994" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -1331,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1348,10 +1353,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1362,93 +1367,93 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1459,7 +1464,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1478,21 +1483,21 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1500,10 +1505,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1511,32 +1516,32 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1560,13 +1565,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1577,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1585,10 +1590,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1596,10 +1601,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1607,10 +1612,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1618,10 +1623,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1629,10 +1634,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1659,46 +1664,46 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="162" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1722,68 +1727,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75.599999999999994" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1796,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE90583-D548-4FB2-BBBC-28132704ED4D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1808,22 +1813,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -1834,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1843,18 +1848,18 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -1863,27 +1868,27 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1894,16 +1899,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1933,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -1947,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1958,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1977,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1988,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1999,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2026,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2031,156 +2036,156 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/g.xlsx
+++ b/漢字（かんじ）/g.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA1214-1CFA-46E2-8A02-F49C85819A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77BD766-A359-46D6-BE89-C48BF0597565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="が" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
     <t>げん</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,10 +359,6 @@
   </si>
   <si>
     <t>楽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音楽｜おんがく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -913,6 +909,20 @@
 被害｜ひがい
 災害｜さいがい
 公害｜こうがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音楽｜おんがく
+楽器｜がっき
+楽曲｜がっきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪華｜ごうか</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1301,22 +1311,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75.599999999999994" x14ac:dyDescent="0.45">
@@ -1336,10 +1346,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1355,8 +1365,8 @@
       <c r="F3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>77</v>
+      <c r="G3" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1367,16 +1377,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1390,13 +1400,13 @@
         <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.45">
@@ -1408,13 +1418,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1425,13 +1435,13 @@
         <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1439,10 +1449,10 @@
         <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1450,10 +1460,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1464,7 +1474,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1483,10 +1493,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1494,10 +1504,10 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1505,10 +1515,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1516,21 +1526,21 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1538,10 +1548,10 @@
         <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1565,13 +1575,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1590,10 +1600,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1601,10 +1611,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1612,10 +1622,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1623,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1634,10 +1644,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1664,13 +1674,13 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -1681,7 +1691,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1692,18 +1702,18 @@
         <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1727,13 +1737,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -1744,7 +1754,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1755,7 +1765,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1777,18 +1787,18 @@
         <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75.599999999999994" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1813,22 +1823,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -1839,7 +1849,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1859,7 +1869,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -1868,7 +1878,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1876,19 +1886,19 @@
         <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1899,16 +1909,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1963,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1996,7 +2006,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2023,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CFD301-6C82-4B60-9714-8DCFBF5661A5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2036,13 +2046,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2050,10 +2060,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2064,7 +2074,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2072,10 +2082,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -2086,7 +2096,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2094,10 +2104,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2105,10 +2115,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -2116,76 +2126,87 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>131</v>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/g.xlsx
+++ b/漢字（かんじ）/g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77BD766-A359-46D6-BE89-C48BF0597565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81299316-5739-454C-948F-44C79F171BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="が" sheetId="1" r:id="rId1"/>
@@ -804,14 +804,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>現金｜げんきん
-現在｜げんざい
-現象｜げんしょう
-現実｜げんじつ
-実現｜じつげん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>語言｜ごげん
 流行語｜りゅうこうご
 流行語大賞｜りゅうこうごたいしょう</t>
@@ -923,6 +915,15 @@
   </si>
   <si>
     <t>豪華｜ごうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金｜げんきん
+現在｜げんざい
+現象｜げんしょう
+現実｜げんじつ
+実現｜じつげん
+表現｜ひょうげん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1366,7 +1367,7 @@
         <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1435,13 +1436,13 @@
         <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1474,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1507,7 +1508,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1548,10 +1549,10 @@
         <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1811,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE90583-D548-4FB2-BBBC-28132704ED4D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1901,7 +1902,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>96</v>
@@ -1918,7 +1919,7 @@
         <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2035,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CFD301-6C82-4B60-9714-8DCFBF5661A5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2074,7 +2075,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2096,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2137,10 +2138,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/g.xlsx
+++ b/漢字（かんじ）/g.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81299316-5739-454C-948F-44C79F171BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0666C9-235C-41FD-A596-4C682D64F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,11 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下旬｜げじゅん
-上下｜じょうげ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激流｜げきりゅう
 激情｜げきじょう
 激動｜げきどう
@@ -924,6 +919,14 @@
 現実｜げんじつ
 実現｜じつげん
 表現｜ひょうげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下旬｜げじゅん
+上下｜じょうげ
+下校｜げこう
+下車｜げしゃ
+下駄｜げた</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1367,7 +1370,7 @@
         <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1387,7 +1390,7 @@
         <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1436,13 +1439,13 @@
         <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1461,10 +1464,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1475,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1508,7 +1511,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1549,10 +1552,10 @@
         <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1645,10 +1648,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1675,13 +1678,13 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -1692,7 +1695,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1755,7 +1758,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1766,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1788,7 +1791,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75.599999999999994" x14ac:dyDescent="0.45">
@@ -1813,7 +1816,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1879,7 +1882,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1899,7 +1902,7 @@
         <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1910,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>96</v>
@@ -1919,7 +1922,7 @@
         <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2075,7 +2078,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2083,10 +2086,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -2097,7 +2100,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2138,10 +2141,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/g.xlsx
+++ b/漢字（かんじ）/g.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0666C9-235C-41FD-A596-4C682D64F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1A9E19-3D3B-4F54-9C1F-2D7D0BC39F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
   <si>
     <t>げん</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,32 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>芸術｜げいじゅつ（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>艺术</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）
-工芸品｜こうげいひん</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,12 +903,26 @@
 下駄｜げた</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ごん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝言｜でんごん
+言語｜ごんご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芸術｜げいじゅつ
+工芸品｜こうげいひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,12 +951,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1017,8 +999,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1350,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1370,7 +1352,7 @@
         <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1381,16 +1363,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1428,7 +1410,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1439,13 +1421,13 @@
         <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1464,10 +1446,10 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1478,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1511,7 +1493,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1538,13 +1520,13 @@
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1552,10 +1534,10 @@
         <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1615,10 +1597,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1629,7 +1611,7 @@
         <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1637,10 +1619,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1648,10 +1630,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1678,13 +1660,13 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -1695,7 +1677,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1706,18 +1688,18 @@
         <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1740,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1769,7 +1751,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1791,18 +1773,18 @@
         <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75.599999999999994" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1798,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1835,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1873,7 +1855,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -1882,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1890,19 +1872,19 @@
         <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1913,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>96</v>
@@ -1922,7 +1904,7 @@
         <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1977,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2010,7 +1992,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2037,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CFD301-6C82-4B60-9714-8DCFBF5661A5}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2064,10 +2046,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2078,7 +2060,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2086,10 +2068,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -2100,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2119,10 +2101,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -2130,10 +2112,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -2141,10 +2123,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -2152,10 +2134,10 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -2166,7 +2148,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2210,7 +2192,18 @@
         <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
